--- a/マップ.xlsx
+++ b/マップ.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckckp\Desktop\HAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marbe\OneDrive\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B22EA303-0496-4596-9ABA-92F186AD02F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D3097C-6B82-4FEB-94E3-1C8EA68AD9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C8A9C3F8-990C-4BBB-A4B6-86B1D1A2193E}"/>
+    <workbookView xWindow="33810" yWindow="2760" windowWidth="19080" windowHeight="12330" activeTab="2" xr2:uid="{C8A9C3F8-990C-4BBB-A4B6-86B1D1A2193E}"/>
   </bookViews>
   <sheets>
     <sheet name="アサ" sheetId="2" r:id="rId1"/>
     <sheet name="ヒルメ" sheetId="1" r:id="rId2"/>
+    <sheet name="バン" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
   <si>
     <t>スタート</t>
     <phoneticPr fontId="2"/>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,8 +94,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +151,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -293,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,91 +356,151 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,9 +521,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,7 +561,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -569,7 +667,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -711,7 +809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,9 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78369079-7555-4407-A6A2-98AA4BA078F2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -738,10 +837,10 @@
       <c r="C2" s="7">
         <v>21</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>32</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>43</v>
       </c>
       <c r="F2" s="9">
@@ -892,7 +991,7 @@
       <c r="L5" s="12">
         <v>117</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="17">
         <v>128</v>
       </c>
       <c r="P5" s="6"/>
@@ -934,7 +1033,7 @@
       <c r="L6" s="12">
         <v>116</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="17">
         <v>127</v>
       </c>
       <c r="P6" s="2"/>
@@ -1011,7 +1110,7 @@
       <c r="K8" s="12">
         <v>103</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>114</v>
       </c>
       <c r="M8" s="14">
@@ -1057,7 +1156,7 @@
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="36">
+      <c r="B10" s="34">
         <v>2</v>
       </c>
       <c r="C10" s="12">
@@ -1090,7 +1189,7 @@
       <c r="L10" s="12">
         <v>112</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>123</v>
       </c>
     </row>
@@ -1113,7 +1212,7 @@
       <c r="G11" s="12">
         <v>56</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H11" s="27">
         <v>67</v>
       </c>
       <c r="I11" s="12">
@@ -1128,45 +1227,45 @@
       <c r="L11" s="15">
         <v>111</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>0</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>11</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>22</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>33</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>44</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>55</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="18">
         <v>66</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>77</v>
       </c>
-      <c r="J12" s="20">
+      <c r="J12" s="19">
         <v>88</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="19">
         <v>99</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>110</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <v>121</v>
       </c>
     </row>
@@ -1181,11 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F0411E-6B53-484C-B1AD-F83A73F54A86}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:Q13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1198,37 +1296,37 @@
       <c r="B2" s="8">
         <v>10</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>21</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>32</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="7">
         <v>43</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>54</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>65</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <v>76</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <v>87</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>98</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <v>109</v>
       </c>
-      <c r="L2" s="22">
+      <c r="L2" s="21">
         <v>120</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="23">
         <v>131</v>
       </c>
       <c r="P2" s="3"/>
@@ -1246,7 +1344,7 @@
       <c r="D3" s="13">
         <v>31</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="24">
         <v>42</v>
       </c>
       <c r="F3" s="13">
@@ -1270,7 +1368,7 @@
       <c r="L3" s="15">
         <v>119</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="17">
         <v>130</v>
       </c>
       <c r="P3" s="4"/>
@@ -1288,19 +1386,19 @@
       <c r="D4" s="13">
         <v>30</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="24">
         <v>41</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>52</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>63</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <v>74</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>85</v>
       </c>
       <c r="J4" s="12">
@@ -1312,7 +1410,7 @@
       <c r="L4" s="15">
         <v>118</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="17">
         <v>129</v>
       </c>
       <c r="P4" s="5"/>
@@ -1321,31 +1419,31 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B5" s="27">
+      <c r="B5" s="25">
         <v>7</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="24">
         <v>18</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>29</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <v>40</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <v>51</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>62</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="24">
         <v>73</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="24">
         <v>84</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="24">
         <v>95</v>
       </c>
       <c r="K5" s="13">
@@ -1354,7 +1452,7 @@
       <c r="L5" s="13">
         <v>117</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="26">
         <v>128</v>
       </c>
       <c r="P5" s="6"/>
@@ -1363,13 +1461,13 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B6" s="27">
+      <c r="B6" s="25">
         <v>6</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>17</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="24">
         <v>28</v>
       </c>
       <c r="E6" s="12">
@@ -1378,16 +1476,16 @@
       <c r="F6" s="15">
         <v>50</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>61</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="24">
         <v>72</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="24">
         <v>83</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="24">
         <v>94</v>
       </c>
       <c r="K6" s="12">
@@ -1396,7 +1494,7 @@
       <c r="L6" s="13">
         <v>116</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="26">
         <v>127</v>
       </c>
       <c r="P6" s="2"/>
@@ -1405,7 +1503,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B7" s="27">
+      <c r="B7" s="25">
         <v>5</v>
       </c>
       <c r="C7" s="13">
@@ -1426,27 +1524,27 @@
       <c r="H7" s="12">
         <v>71</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="24">
         <v>82</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="24">
         <v>93</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="24">
         <v>104</v>
       </c>
       <c r="L7" s="12">
         <v>115</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="26">
         <v>126</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B8" s="27">
+      <c r="B8" s="25">
         <v>4</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>15</v>
       </c>
       <c r="D8" s="13">
@@ -1458,30 +1556,30 @@
       <c r="F8" s="15">
         <v>48</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="27">
         <v>59</v>
       </c>
       <c r="H8" s="13">
         <v>70</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="24">
         <v>81</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="24">
         <v>92</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="24">
         <v>103</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="24">
         <v>114</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="28">
         <v>125</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>3</v>
       </c>
       <c r="C9" s="12">
@@ -1490,7 +1588,7 @@
       <c r="D9" s="13">
         <v>25</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>36</v>
       </c>
       <c r="F9" s="15">
@@ -1508,21 +1606,21 @@
       <c r="J9" s="15">
         <v>91</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="24">
         <v>102</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="24">
         <v>113</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="28">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B10" s="27">
+      <c r="B10" s="25">
         <v>2</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="1">
         <v>13</v>
       </c>
       <c r="D10" s="13">
@@ -1534,7 +1632,7 @@
       <c r="F10" s="15">
         <v>46</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="27">
         <v>57</v>
       </c>
       <c r="H10" s="13">
@@ -1543,27 +1641,27 @@
       <c r="I10" s="12">
         <v>79</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="24">
         <v>90</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="24">
         <v>101</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="24">
         <v>112</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="28">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.45">
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <v>1</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="24">
         <v>12</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="24">
         <v>23</v>
       </c>
       <c r="E11" s="12">
@@ -1581,54 +1679,517 @@
       <c r="I11" s="13">
         <v>78</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="24">
         <v>89</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="24">
         <v>100</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="24">
         <v>111</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="28">
         <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="31">
+      <c r="B12" s="29">
         <v>0</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="30">
         <v>11</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>22</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>33</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="19">
         <v>44</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="31">
         <v>55</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="31">
         <v>66</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="31">
         <v>77</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="30">
         <v>88</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>99</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="30">
         <v>110</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="32">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="G13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD77023F-C38B-4602-90E2-5A6D6A5B521F}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:Q13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="10" width="3.8984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B2" s="37">
+        <v>10</v>
+      </c>
+      <c r="C2" s="38">
+        <v>21</v>
+      </c>
+      <c r="D2" s="51">
+        <v>32</v>
+      </c>
+      <c r="E2" s="21">
+        <v>43</v>
+      </c>
+      <c r="F2" s="51">
+        <v>54</v>
+      </c>
+      <c r="G2" s="52">
+        <v>65</v>
+      </c>
+      <c r="H2" s="38">
+        <v>76</v>
+      </c>
+      <c r="I2" s="46">
+        <v>87</v>
+      </c>
+      <c r="J2" s="46">
+        <v>98</v>
+      </c>
+      <c r="K2" s="46">
+        <v>109</v>
+      </c>
+      <c r="L2" s="46">
+        <v>120</v>
+      </c>
+      <c r="M2" s="48">
+        <v>131</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B3" s="39">
+        <v>9</v>
+      </c>
+      <c r="C3" s="36">
+        <v>20</v>
+      </c>
+      <c r="D3" s="12">
+        <v>31</v>
+      </c>
+      <c r="E3" s="12">
+        <v>42</v>
+      </c>
+      <c r="F3" s="12">
+        <v>53</v>
+      </c>
+      <c r="G3" s="54">
+        <v>64</v>
+      </c>
+      <c r="H3" s="50">
+        <v>75</v>
+      </c>
+      <c r="I3" s="12">
+        <v>86</v>
+      </c>
+      <c r="J3" s="44">
+        <v>97</v>
+      </c>
+      <c r="K3" s="44">
+        <v>108</v>
+      </c>
+      <c r="L3" s="12">
+        <v>119</v>
+      </c>
+      <c r="M3" s="49">
+        <v>130</v>
+      </c>
+      <c r="P3" s="4"/>
+      <c r="Q3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B4" s="16">
+        <v>8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>19</v>
+      </c>
+      <c r="D4" s="12">
+        <v>30</v>
+      </c>
+      <c r="E4" s="12">
+        <v>41</v>
+      </c>
+      <c r="F4" s="12">
+        <v>52</v>
+      </c>
+      <c r="G4" s="12">
+        <v>63</v>
+      </c>
+      <c r="H4" s="12">
+        <v>74</v>
+      </c>
+      <c r="I4" s="54">
+        <v>85</v>
+      </c>
+      <c r="J4" s="12">
+        <v>96</v>
+      </c>
+      <c r="K4" s="12">
+        <v>107</v>
+      </c>
+      <c r="L4" s="12">
+        <v>118</v>
+      </c>
+      <c r="M4" s="14">
+        <v>129</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B5" s="11">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12">
+        <v>51</v>
+      </c>
+      <c r="G5" s="12">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12">
+        <v>73</v>
+      </c>
+      <c r="I5" s="12">
+        <v>84</v>
+      </c>
+      <c r="J5" s="12">
+        <v>95</v>
+      </c>
+      <c r="K5" s="44">
+        <v>106</v>
+      </c>
+      <c r="L5" s="44">
+        <v>117</v>
+      </c>
+      <c r="M5" s="47">
+        <v>128</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B6" s="43">
+        <v>6</v>
+      </c>
+      <c r="C6" s="54">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12">
+        <v>28</v>
+      </c>
+      <c r="E6" s="12">
+        <v>39</v>
+      </c>
+      <c r="F6" s="15">
+        <v>50</v>
+      </c>
+      <c r="G6" s="15">
+        <v>61</v>
+      </c>
+      <c r="H6" s="15">
+        <v>72</v>
+      </c>
+      <c r="I6" s="12">
+        <v>83</v>
+      </c>
+      <c r="J6" s="12">
+        <v>94</v>
+      </c>
+      <c r="K6" s="12">
+        <v>105</v>
+      </c>
+      <c r="L6" s="12">
+        <v>116</v>
+      </c>
+      <c r="M6" s="47">
+        <v>127</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B7" s="56">
+        <v>5</v>
+      </c>
+      <c r="C7" s="54">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12">
+        <v>27</v>
+      </c>
+      <c r="E7" s="12">
+        <v>38</v>
+      </c>
+      <c r="F7" s="12">
+        <v>49</v>
+      </c>
+      <c r="G7" s="12">
+        <v>60</v>
+      </c>
+      <c r="H7" s="12">
+        <v>71</v>
+      </c>
+      <c r="I7" s="12">
+        <v>82</v>
+      </c>
+      <c r="J7" s="12">
+        <v>93</v>
+      </c>
+      <c r="K7" s="12">
+        <v>104</v>
+      </c>
+      <c r="L7" s="54">
+        <v>115</v>
+      </c>
+      <c r="M7" s="14">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B8" s="16">
+        <v>4</v>
+      </c>
+      <c r="C8" s="44">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
+        <v>26</v>
+      </c>
+      <c r="E8" s="12">
+        <v>37</v>
+      </c>
+      <c r="F8" s="54">
+        <v>48</v>
+      </c>
+      <c r="G8" s="12">
+        <v>59</v>
+      </c>
+      <c r="H8" s="12">
+        <v>70</v>
+      </c>
+      <c r="I8" s="12">
+        <v>81</v>
+      </c>
+      <c r="J8" s="12">
+        <v>92</v>
+      </c>
+      <c r="K8" s="54">
+        <v>103</v>
+      </c>
+      <c r="L8" s="12">
+        <v>114</v>
+      </c>
+      <c r="M8" s="55">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
+        <v>3</v>
+      </c>
+      <c r="C9" s="12">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12">
+        <v>25</v>
+      </c>
+      <c r="E9" s="54">
+        <v>36</v>
+      </c>
+      <c r="F9" s="12">
+        <v>47</v>
+      </c>
+      <c r="G9" s="44">
+        <v>58</v>
+      </c>
+      <c r="H9" s="44">
+        <v>69</v>
+      </c>
+      <c r="I9" s="12">
+        <v>80</v>
+      </c>
+      <c r="J9" s="54">
+        <v>91</v>
+      </c>
+      <c r="K9" s="12">
+        <v>102</v>
+      </c>
+      <c r="L9" s="45">
+        <v>113</v>
+      </c>
+      <c r="M9" s="14">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B10" s="16">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>13</v>
+      </c>
+      <c r="D10" s="54">
+        <v>24</v>
+      </c>
+      <c r="E10" s="12">
+        <v>35</v>
+      </c>
+      <c r="F10" s="44">
+        <v>46</v>
+      </c>
+      <c r="G10" s="45">
+        <v>57</v>
+      </c>
+      <c r="H10" s="12">
+        <v>68</v>
+      </c>
+      <c r="I10" s="12">
+        <v>79</v>
+      </c>
+      <c r="J10" s="12">
+        <v>90</v>
+      </c>
+      <c r="K10" s="54">
+        <v>101</v>
+      </c>
+      <c r="L10" s="12">
+        <v>112</v>
+      </c>
+      <c r="M10" s="55">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12">
+        <v>12</v>
+      </c>
+      <c r="D11" s="12">
+        <v>23</v>
+      </c>
+      <c r="E11" s="12">
+        <v>34</v>
+      </c>
+      <c r="F11" s="12">
+        <v>45</v>
+      </c>
+      <c r="G11" s="54">
+        <v>56</v>
+      </c>
+      <c r="H11" s="50">
+        <v>67</v>
+      </c>
+      <c r="I11" s="12">
+        <v>78</v>
+      </c>
+      <c r="J11" s="54">
+        <v>89</v>
+      </c>
+      <c r="K11" s="12">
+        <v>100</v>
+      </c>
+      <c r="L11" s="54">
+        <v>111</v>
+      </c>
+      <c r="M11" s="40">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="35">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18">
+        <v>22</v>
+      </c>
+      <c r="E12" s="53">
+        <v>33</v>
+      </c>
+      <c r="F12" s="18">
+        <v>44</v>
+      </c>
+      <c r="G12" s="18">
+        <v>55</v>
+      </c>
+      <c r="H12" s="42">
+        <v>66</v>
+      </c>
+      <c r="I12" s="18">
+        <v>77</v>
+      </c>
+      <c r="J12" s="18">
+        <v>88</v>
+      </c>
+      <c r="K12" s="18">
+        <v>99</v>
+      </c>
+      <c r="L12" s="42">
+        <v>110</v>
+      </c>
+      <c r="M12" s="41">
         <v>121</v>
       </c>
     </row>
